--- a/language.goldmine.comparison.xlsx
+++ b/language.goldmine.comparison.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="0" windowWidth="26120" windowHeight="25020" tabRatio="500"/>
+    <workbookView xWindow="360" yWindow="0" windowWidth="37080" windowHeight="25020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$G$1:$G$171</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$171</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -21,6 +21,44 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Katy Valentine</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Katy Valentine:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+dark grey: have pdf, but is not pub article
+grey: now have pdf
+white:already in LAB
+Blue: not in LAB, not in pdf form
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="780">
   <si>
@@ -2368,7 +2406,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2376,8 +2414,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2396,6 +2463,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2406,19 +2491,347 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="147">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF8DB4E2"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF8DB4E2"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB8CCE4"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB8CCE4"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
@@ -2744,11 +3157,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:G171"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:F1048576"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2783,25 +3197,25 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>339</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>340</v>
+        <v>460</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>461</v>
       </c>
       <c r="C2" t="s">
-        <v>341</v>
+        <v>462</v>
       </c>
       <c r="D2" t="s">
-        <v>342</v>
+        <v>463</v>
       </c>
       <c r="E2" t="s">
-        <v>343</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" hidden="1">
       <c r="A3" t="s">
         <v>652</v>
       </c>
@@ -2820,45 +3234,51 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>295</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>296</v>
+        <v>157</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>158</v>
       </c>
       <c r="C4" t="s">
-        <v>297</v>
+        <v>159</v>
       </c>
       <c r="D4" t="s">
-        <v>73</v>
+        <v>160</v>
       </c>
       <c r="E4" t="s">
-        <v>288</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>298</v>
+        <v>161</v>
+      </c>
+      <c r="G4" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>266</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>267</v>
+        <v>614</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>615</v>
       </c>
       <c r="C5" t="s">
-        <v>268</v>
+        <v>616</v>
       </c>
       <c r="D5" t="s">
-        <v>269</v>
+        <v>617</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F5" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>618</v>
+      </c>
+      <c r="G5" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" hidden="1">
       <c r="A6" t="s">
         <v>624</v>
       </c>
@@ -2875,7 +3295,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" hidden="1">
       <c r="A7" t="s">
         <v>554</v>
       </c>
@@ -2892,7 +3312,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" hidden="1">
       <c r="A8" t="s">
         <v>667</v>
       </c>
@@ -2913,7 +3333,7 @@
       <c r="A9" t="s">
         <v>540</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="4" t="s">
         <v>541</v>
       </c>
       <c r="C9" t="s">
@@ -2929,7 +3349,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" hidden="1">
       <c r="A10" t="s">
         <v>671</v>
       </c>
@@ -2948,65 +3368,68 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>108</v>
-      </c>
-      <c r="B11" t="s">
-        <v>109</v>
+        <v>211</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>212</v>
       </c>
       <c r="C11" t="s">
-        <v>110</v>
+        <v>153</v>
       </c>
       <c r="D11" t="s">
-        <v>97</v>
+        <v>213</v>
       </c>
       <c r="E11" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>111</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>211</v>
+        <v>443</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>212</v>
+        <v>444</v>
       </c>
       <c r="C12" t="s">
-        <v>153</v>
+        <v>445</v>
       </c>
       <c r="D12" t="s">
-        <v>213</v>
+        <v>446</v>
       </c>
       <c r="E12" t="s">
         <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>214</v>
+        <v>447</v>
+      </c>
+      <c r="G12" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>290</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>291</v>
+        <v>85</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>86</v>
       </c>
       <c r="C13" t="s">
-        <v>292</v>
+        <v>87</v>
       </c>
       <c r="D13" t="s">
-        <v>293</v>
+        <v>88</v>
       </c>
       <c r="E13" t="s">
-        <v>98</v>
+        <v>26</v>
       </c>
       <c r="F13" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" hidden="1">
       <c r="A14" t="s">
         <v>377</v>
       </c>
@@ -3023,7 +3446,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" hidden="1">
       <c r="A15" t="s">
         <v>675</v>
       </c>
@@ -3042,28 +3465,25 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>443</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>444</v>
+        <v>188</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>189</v>
       </c>
       <c r="C16" t="s">
-        <v>445</v>
+        <v>190</v>
       </c>
       <c r="D16" t="s">
-        <v>446</v>
+        <v>69</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="F16" t="s">
-        <v>447</v>
-      </c>
-      <c r="G16" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" hidden="1">
       <c r="A17" t="s">
         <v>648</v>
       </c>
@@ -3080,27 +3500,30 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>517</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>518</v>
+        <v>482</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>483</v>
       </c>
       <c r="C18" t="s">
-        <v>519</v>
+        <v>484</v>
       </c>
       <c r="D18" t="s">
-        <v>520</v>
+        <v>485</v>
       </c>
       <c r="E18" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>486</v>
+      </c>
+      <c r="G18" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" hidden="1">
       <c r="A19" t="s">
         <v>148</v>
       </c>
@@ -3117,7 +3540,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:7" hidden="1">
       <c r="A20" t="s">
         <v>572</v>
       </c>
@@ -3134,47 +3557,50 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>144</v>
-      </c>
-      <c r="B21" t="s">
-        <v>145</v>
+        <v>395</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>396</v>
       </c>
       <c r="C21" t="s">
-        <v>146</v>
+        <v>397</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>398</v>
       </c>
       <c r="E21" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>49</v>
+        <v>454</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>455</v>
       </c>
       <c r="C22" t="s">
-        <v>50</v>
+        <v>456</v>
       </c>
       <c r="D22" t="s">
-        <v>25</v>
+        <v>457</v>
       </c>
       <c r="E22" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>458</v>
+      </c>
+      <c r="G22" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" hidden="1">
       <c r="A23" t="s">
         <v>535</v>
       </c>
@@ -3191,87 +3617,90 @@
         <v>539</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>85</v>
+        <v>410</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>86</v>
+        <v>411</v>
       </c>
       <c r="C24" t="s">
-        <v>87</v>
+        <v>412</v>
       </c>
       <c r="D24" t="s">
-        <v>88</v>
+        <v>413</v>
       </c>
       <c r="E24" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="F24" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>80</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>81</v>
+        <v>415</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>416</v>
       </c>
       <c r="C25" t="s">
-        <v>82</v>
+        <v>412</v>
       </c>
       <c r="D25" t="s">
-        <v>83</v>
+        <v>413</v>
       </c>
       <c r="E25" t="s">
         <v>46</v>
       </c>
       <c r="F25" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>29</v>
+        <v>608</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>609</v>
       </c>
       <c r="C26" t="s">
-        <v>30</v>
+        <v>610</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="E26" t="s">
-        <v>31</v>
+        <v>611</v>
       </c>
       <c r="F26" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>612</v>
+      </c>
+      <c r="G26" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>140</v>
-      </c>
-      <c r="B27" t="s">
-        <v>141</v>
+        <v>371</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>372</v>
       </c>
       <c r="C27" t="s">
-        <v>142</v>
+        <v>373</v>
       </c>
       <c r="D27" t="s">
-        <v>97</v>
+        <v>374</v>
       </c>
       <c r="E27" t="s">
-        <v>46</v>
+        <v>375</v>
       </c>
       <c r="F27" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" hidden="1">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -3288,7 +3717,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:7" hidden="1">
       <c r="A29" t="s">
         <v>699</v>
       </c>
@@ -3305,7 +3734,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:7" hidden="1">
       <c r="A30" t="s">
         <v>695</v>
       </c>
@@ -3322,7 +3751,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:7" hidden="1">
       <c r="A31" t="s">
         <v>185</v>
       </c>
@@ -3339,7 +3768,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:7" hidden="1">
       <c r="A32" t="s">
         <v>601</v>
       </c>
@@ -3356,7 +3785,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" hidden="1">
       <c r="A33" t="s">
         <v>593</v>
       </c>
@@ -3373,7 +3802,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" hidden="1">
       <c r="A34" t="s">
         <v>636</v>
       </c>
@@ -3390,7 +3819,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" hidden="1">
       <c r="A35" t="s">
         <v>691</v>
       </c>
@@ -3409,25 +3838,28 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>345</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>346</v>
+        <v>493</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>494</v>
       </c>
       <c r="C36" t="s">
-        <v>347</v>
+        <v>495</v>
       </c>
       <c r="D36" t="s">
-        <v>348</v>
+        <v>496</v>
       </c>
       <c r="E36" t="s">
-        <v>349</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>497</v>
+      </c>
+      <c r="G36" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" hidden="1">
       <c r="A37" t="s">
         <v>576</v>
       </c>
@@ -3449,45 +3881,51 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>188</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>189</v>
+        <v>558</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>559</v>
       </c>
       <c r="C38" t="s">
-        <v>190</v>
+        <v>560</v>
       </c>
       <c r="D38" t="s">
-        <v>69</v>
+        <v>557</v>
       </c>
       <c r="E38" t="s">
         <v>46</v>
       </c>
       <c r="F38" t="s">
-        <v>191</v>
+        <v>561</v>
+      </c>
+      <c r="G38" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>305</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>306</v>
+        <v>476</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>477</v>
       </c>
       <c r="C39" t="s">
-        <v>307</v>
+        <v>478</v>
       </c>
       <c r="D39" t="s">
-        <v>166</v>
+        <v>479</v>
       </c>
       <c r="E39" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>480</v>
+      </c>
+      <c r="G39" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" hidden="1">
       <c r="A40" t="s">
         <v>192</v>
       </c>
@@ -3507,7 +3945,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" hidden="1">
       <c r="A41" t="s">
         <v>706</v>
       </c>
@@ -3526,151 +3964,151 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>482</v>
+        <v>178</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>483</v>
+        <v>179</v>
       </c>
       <c r="C42" t="s">
-        <v>484</v>
+        <v>180</v>
       </c>
       <c r="D42" t="s">
-        <v>485</v>
+        <v>133</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="F42" t="s">
-        <v>486</v>
-      </c>
-      <c r="G42" t="s">
-        <v>487</v>
+        <v>181</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>33</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>34</v>
+        <v>774</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>775</v>
       </c>
       <c r="C43" t="s">
-        <v>35</v>
+        <v>776</v>
       </c>
       <c r="D43" t="s">
-        <v>25</v>
+        <v>777</v>
       </c>
       <c r="E43" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="F43" t="s">
-        <v>37</v>
+        <v>778</v>
+      </c>
+      <c r="G43" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>395</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>396</v>
+        <v>12</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="C44" t="s">
-        <v>397</v>
+        <v>14</v>
       </c>
       <c r="D44" t="s">
-        <v>398</v>
+        <v>15</v>
       </c>
       <c r="E44" t="s">
         <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>399</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>455</v>
+        <v>466</v>
       </c>
       <c r="C45" t="s">
-        <v>456</v>
+        <v>467</v>
       </c>
       <c r="D45" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
       <c r="E45" t="s">
         <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>458</v>
-      </c>
-      <c r="G45" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>94</v>
-      </c>
-      <c r="B46" t="s">
-        <v>95</v>
+        <v>168</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="C46" t="s">
-        <v>96</v>
+        <v>170</v>
       </c>
       <c r="D46" t="s">
-        <v>97</v>
+        <v>171</v>
       </c>
       <c r="E46" t="s">
-        <v>98</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>99</v>
+        <v>172</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>410</v>
+        <v>151</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>411</v>
+        <v>152</v>
       </c>
       <c r="C47" t="s">
-        <v>412</v>
+        <v>153</v>
       </c>
       <c r="D47" t="s">
-        <v>413</v>
+        <v>154</v>
       </c>
       <c r="E47" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>414</v>
+        <v>155</v>
+      </c>
+      <c r="G47" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>415</v>
+        <v>499</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>416</v>
+        <v>500</v>
       </c>
       <c r="C48" t="s">
-        <v>412</v>
+        <v>501</v>
       </c>
       <c r="D48" t="s">
-        <v>413</v>
+        <v>502</v>
       </c>
       <c r="E48" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" hidden="1">
       <c r="A49" t="s">
         <v>770</v>
       </c>
@@ -3689,25 +4127,25 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>460</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>461</v>
+        <v>62</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="C50" t="s">
-        <v>462</v>
+        <v>64</v>
       </c>
       <c r="D50" t="s">
-        <v>463</v>
+        <v>65</v>
       </c>
       <c r="E50" t="s">
         <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" hidden="1">
       <c r="A51" t="s">
         <v>239</v>
       </c>
@@ -3724,7 +4162,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" hidden="1">
       <c r="A52" t="s">
         <v>182</v>
       </c>
@@ -3741,7 +4179,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" hidden="1">
       <c r="A53" t="s">
         <v>219</v>
       </c>
@@ -3760,88 +4198,85 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" t="s">
-        <v>608</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>609</v>
+        <v>67</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="C54" t="s">
-        <v>610</v>
+        <v>68</v>
       </c>
       <c r="D54" t="s">
         <v>69</v>
       </c>
       <c r="E54" t="s">
-        <v>611</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>612</v>
-      </c>
-      <c r="G54" t="s">
-        <v>613</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" t="s">
-        <v>323</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>324</v>
+        <v>567</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>568</v>
       </c>
       <c r="C55" t="s">
-        <v>325</v>
+        <v>569</v>
       </c>
       <c r="D55" t="s">
-        <v>326</v>
+        <v>570</v>
       </c>
       <c r="E55" t="s">
-        <v>327</v>
+        <v>46</v>
       </c>
       <c r="F55" t="s">
-        <v>328</v>
+        <v>571</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
-        <v>371</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>372</v>
+        <v>405</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>406</v>
       </c>
       <c r="C56" t="s">
-        <v>373</v>
+        <v>407</v>
       </c>
       <c r="D56" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="E56" t="s">
-        <v>375</v>
+        <v>98</v>
       </c>
       <c r="F56" t="s">
-        <v>376</v>
+        <v>409</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>276</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>367</v>
+        <v>429</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>430</v>
       </c>
       <c r="C57" t="s">
-        <v>368</v>
+        <v>431</v>
       </c>
       <c r="D57" t="s">
-        <v>369</v>
+        <v>432</v>
       </c>
       <c r="E57" t="s">
-        <v>257</v>
+        <v>46</v>
       </c>
       <c r="F57" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" hidden="1">
       <c r="A58" t="s">
         <v>488</v>
       </c>
@@ -3861,7 +4296,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" hidden="1">
       <c r="A59" t="s">
         <v>765</v>
       </c>
@@ -3880,28 +4315,28 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" t="s">
-        <v>493</v>
+        <v>197</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>494</v>
+        <v>198</v>
       </c>
       <c r="C60" t="s">
-        <v>495</v>
+        <v>199</v>
       </c>
       <c r="D60" t="s">
-        <v>496</v>
+        <v>200</v>
       </c>
       <c r="E60" t="s">
         <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>497</v>
+        <v>201</v>
       </c>
       <c r="G60" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" hidden="1">
       <c r="A61" t="s">
         <v>762</v>
       </c>
@@ -3918,7 +4353,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" hidden="1">
       <c r="A62" t="s">
         <v>243</v>
       </c>
@@ -3937,48 +4372,45 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" t="s">
-        <v>558</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>559</v>
+        <v>263</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>136</v>
       </c>
       <c r="C63" t="s">
-        <v>560</v>
+        <v>264</v>
       </c>
       <c r="D63" t="s">
-        <v>557</v>
+        <v>261</v>
       </c>
       <c r="E63" t="s">
         <v>46</v>
       </c>
       <c r="F63" t="s">
-        <v>561</v>
-      </c>
-      <c r="G63" t="s">
-        <v>562</v>
+        <v>265</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" t="s">
-        <v>53</v>
-      </c>
-      <c r="B64" t="s">
-        <v>54</v>
+        <v>234</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>235</v>
       </c>
       <c r="C64" t="s">
-        <v>55</v>
+        <v>236</v>
       </c>
       <c r="D64" t="s">
-        <v>56</v>
+        <v>237</v>
       </c>
       <c r="E64" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" hidden="1">
       <c r="A65" t="s">
         <v>758</v>
       </c>
@@ -3995,7 +4427,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" hidden="1">
       <c r="A66" t="s">
         <v>563</v>
       </c>
@@ -4014,28 +4446,25 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" t="s">
-        <v>476</v>
+        <v>400</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>477</v>
+        <v>401</v>
       </c>
       <c r="C67" t="s">
-        <v>478</v>
+        <v>402</v>
       </c>
       <c r="D67" t="s">
-        <v>479</v>
+        <v>403</v>
       </c>
       <c r="E67" t="s">
         <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>480</v>
-      </c>
-      <c r="G67" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" hidden="1">
       <c r="A68" t="s">
         <v>754</v>
       </c>
@@ -4052,7 +4481,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" hidden="1">
       <c r="A69" t="s">
         <v>504</v>
       </c>
@@ -4069,7 +4498,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" hidden="1">
       <c r="A70" t="s">
         <v>382</v>
       </c>
@@ -4086,7 +4515,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" hidden="1">
       <c r="A71" t="s">
         <v>750</v>
       </c>
@@ -4103,7 +4532,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" hidden="1">
       <c r="A72" t="s">
         <v>508</v>
       </c>
@@ -4120,7 +4549,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" hidden="1">
       <c r="A73" t="s">
         <v>439</v>
       </c>
@@ -4142,65 +4571,68 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" t="s">
-        <v>423</v>
-      </c>
-      <c r="B74" t="s">
-        <v>424</v>
+        <v>125</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>126</v>
       </c>
       <c r="C74" t="s">
-        <v>425</v>
+        <v>127</v>
       </c>
       <c r="D74" t="s">
-        <v>426</v>
+        <v>128</v>
       </c>
       <c r="E74" t="s">
-        <v>427</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>428</v>
+        <v>129</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" t="s">
-        <v>271</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>272</v>
+        <v>470</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>471</v>
       </c>
       <c r="C75" t="s">
-        <v>273</v>
+        <v>472</v>
       </c>
       <c r="D75" t="s">
-        <v>274</v>
+        <v>473</v>
       </c>
       <c r="E75" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>275</v>
+        <v>474</v>
+      </c>
+      <c r="G75" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" t="s">
-        <v>299</v>
+        <v>339</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="C76" t="s">
-        <v>301</v>
+        <v>341</v>
       </c>
       <c r="D76" t="s">
-        <v>302</v>
+        <v>342</v>
       </c>
       <c r="E76" t="s">
-        <v>303</v>
+        <v>343</v>
       </c>
       <c r="F76" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" hidden="1">
       <c r="A77" t="s">
         <v>215</v>
       </c>
@@ -4219,25 +4651,25 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78" t="s">
-        <v>22</v>
+        <v>295</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>23</v>
+        <v>296</v>
       </c>
       <c r="C78" t="s">
-        <v>24</v>
+        <v>297</v>
       </c>
       <c r="D78" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="E78" t="s">
-        <v>26</v>
+        <v>288</v>
       </c>
       <c r="F78" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" hidden="1">
       <c r="A79" t="s">
         <v>679</v>
       </c>
@@ -4254,7 +4686,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" hidden="1">
       <c r="A80" t="s">
         <v>628</v>
       </c>
@@ -4271,7 +4703,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:6" hidden="1">
       <c r="A81" t="s">
         <v>739</v>
       </c>
@@ -4288,35 +4720,35 @@
         <v>98</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:6">
       <c r="A82" t="s">
-        <v>112</v>
-      </c>
-      <c r="B82" t="s">
-        <v>113</v>
+        <v>266</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>267</v>
       </c>
       <c r="C82" t="s">
-        <v>114</v>
+        <v>268</v>
       </c>
       <c r="D82" t="s">
-        <v>97</v>
+        <v>269</v>
       </c>
       <c r="E82" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="F82" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B83" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C83" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="D83" t="s">
         <v>97</v>
@@ -4325,10 +4757,10 @@
         <v>46</v>
       </c>
       <c r="F83" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" hidden="1">
       <c r="A84" t="s">
         <v>58</v>
       </c>
@@ -4345,7 +4777,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:6" hidden="1">
       <c r="A85" t="s">
         <v>100</v>
       </c>
@@ -4362,7 +4794,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:6" hidden="1">
       <c r="A86" t="s">
         <v>747</v>
       </c>
@@ -4379,47 +4811,47 @@
         <v>31</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:6">
       <c r="A87" t="s">
-        <v>120</v>
-      </c>
-      <c r="B87" t="s">
-        <v>121</v>
+        <v>290</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>291</v>
       </c>
       <c r="C87" t="s">
-        <v>122</v>
+        <v>292</v>
       </c>
       <c r="D87" t="s">
-        <v>123</v>
+        <v>293</v>
       </c>
       <c r="E87" t="s">
-        <v>26</v>
+        <v>98</v>
       </c>
       <c r="F87" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" t="s">
-        <v>178</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>179</v>
+        <v>517</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>518</v>
       </c>
       <c r="C88" t="s">
-        <v>180</v>
+        <v>519</v>
       </c>
       <c r="D88" t="s">
-        <v>133</v>
+        <v>520</v>
       </c>
       <c r="E88" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F88" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" hidden="1">
       <c r="A89" t="s">
         <v>276</v>
       </c>
@@ -4436,150 +4868,147 @@
         <v>257</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:6">
       <c r="A90" t="s">
-        <v>774</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>775</v>
+        <v>144</v>
+      </c>
+      <c r="B90" t="s">
+        <v>145</v>
       </c>
       <c r="C90" t="s">
-        <v>776</v>
+        <v>146</v>
       </c>
       <c r="D90" t="s">
-        <v>777</v>
+        <v>25</v>
       </c>
       <c r="E90" t="s">
         <v>46</v>
       </c>
       <c r="F90" t="s">
-        <v>778</v>
-      </c>
-      <c r="G90" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="C91" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="D91" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="E91" t="s">
+        <v>51</v>
+      </c>
+      <c r="F91" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" t="s">
+        <v>80</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C92" t="s">
+        <v>82</v>
+      </c>
+      <c r="D92" t="s">
+        <v>83</v>
+      </c>
+      <c r="E92" t="s">
         <v>46</v>
       </c>
-      <c r="F91" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
-      <c r="A92" t="s">
-        <v>12</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C92" t="s">
-        <v>14</v>
-      </c>
-      <c r="D92" t="s">
-        <v>15</v>
-      </c>
-      <c r="E92" t="s">
-        <v>11</v>
-      </c>
       <c r="F92" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" t="s">
-        <v>135</v>
+        <v>28</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>136</v>
+        <v>29</v>
       </c>
       <c r="C93" t="s">
-        <v>137</v>
+        <v>30</v>
       </c>
       <c r="D93" t="s">
-        <v>138</v>
+        <v>25</v>
       </c>
       <c r="E93" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="F93" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" t="s">
-        <v>258</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>259</v>
+        <v>140</v>
+      </c>
+      <c r="B94" t="s">
+        <v>141</v>
       </c>
       <c r="C94" t="s">
-        <v>260</v>
+        <v>142</v>
       </c>
       <c r="D94" t="s">
-        <v>261</v>
+        <v>97</v>
       </c>
       <c r="E94" t="s">
         <v>46</v>
       </c>
       <c r="F94" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" t="s">
-        <v>465</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>466</v>
+        <v>345</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>346</v>
       </c>
       <c r="C95" t="s">
-        <v>467</v>
+        <v>347</v>
       </c>
       <c r="D95" t="s">
-        <v>468</v>
+        <v>348</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>349</v>
       </c>
       <c r="F95" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" t="s">
-        <v>38</v>
-      </c>
-      <c r="B96" t="s">
-        <v>39</v>
+        <v>305</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>306</v>
       </c>
       <c r="C96" t="s">
-        <v>40</v>
+        <v>307</v>
       </c>
       <c r="D96" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="E96" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F96" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" hidden="1">
       <c r="A97" t="s">
         <v>387</v>
       </c>
@@ -4596,7 +5025,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" hidden="1">
       <c r="A98" t="s">
         <v>743</v>
       </c>
@@ -4615,25 +5044,25 @@
     </row>
     <row r="99" spans="1:7">
       <c r="A99" t="s">
-        <v>333</v>
+        <v>33</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>334</v>
+        <v>34</v>
       </c>
       <c r="C99" t="s">
-        <v>335</v>
+        <v>35</v>
       </c>
       <c r="D99" t="s">
-        <v>336</v>
+        <v>25</v>
       </c>
       <c r="E99" t="s">
-        <v>337</v>
+        <v>36</v>
       </c>
       <c r="F99" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" hidden="1">
       <c r="A100" t="s">
         <v>644</v>
       </c>
@@ -4652,25 +5081,25 @@
     </row>
     <row r="101" spans="1:7">
       <c r="A101" t="s">
-        <v>163</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>164</v>
+        <v>94</v>
+      </c>
+      <c r="B101" t="s">
+        <v>95</v>
       </c>
       <c r="C101" t="s">
-        <v>165</v>
+        <v>96</v>
       </c>
       <c r="D101" t="s">
-        <v>166</v>
+        <v>97</v>
       </c>
       <c r="E101" t="s">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="F101" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" hidden="1">
       <c r="A102" t="s">
         <v>710</v>
       </c>
@@ -4692,28 +5121,25 @@
     </row>
     <row r="103" spans="1:7">
       <c r="A103" t="s">
-        <v>157</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>158</v>
+        <v>323</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="C103" t="s">
-        <v>159</v>
+        <v>325</v>
       </c>
       <c r="D103" t="s">
-        <v>160</v>
+        <v>326</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>327</v>
       </c>
       <c r="F103" t="s">
-        <v>161</v>
-      </c>
-      <c r="G103" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" hidden="1">
       <c r="A104" t="s">
         <v>703</v>
       </c>
@@ -4730,7 +5156,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" hidden="1">
       <c r="A105" t="s">
         <v>246</v>
       </c>
@@ -4747,7 +5173,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" hidden="1">
       <c r="A106" t="s">
         <v>545</v>
       </c>
@@ -4764,7 +5190,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" hidden="1">
       <c r="A107" t="s">
         <v>652</v>
       </c>
@@ -4781,7 +5207,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" hidden="1">
       <c r="A108" t="s">
         <v>203</v>
       </c>
@@ -4798,7 +5224,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" hidden="1">
       <c r="A109" t="s">
         <v>223</v>
       </c>
@@ -4815,7 +5241,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:7" hidden="1">
       <c r="A110" t="s">
         <v>734</v>
       </c>
@@ -4832,7 +5258,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" hidden="1">
       <c r="A111" t="s">
         <v>585</v>
       </c>
@@ -4851,65 +5277,65 @@
     </row>
     <row r="112" spans="1:7">
       <c r="A112" t="s">
-        <v>168</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>169</v>
+        <v>276</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>367</v>
       </c>
       <c r="C112" t="s">
-        <v>170</v>
+        <v>368</v>
       </c>
       <c r="D112" t="s">
-        <v>171</v>
+        <v>369</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>257</v>
       </c>
       <c r="F112" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
       <c r="A113" t="s">
-        <v>173</v>
+        <v>53</v>
       </c>
       <c r="B113" t="s">
-        <v>174</v>
+        <v>54</v>
       </c>
       <c r="C113" t="s">
-        <v>175</v>
+        <v>55</v>
       </c>
       <c r="D113" t="s">
-        <v>176</v>
+        <v>56</v>
       </c>
       <c r="E113" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F113" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
       <c r="A114" t="s">
-        <v>317</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>318</v>
+        <v>423</v>
+      </c>
+      <c r="B114" t="s">
+        <v>424</v>
       </c>
       <c r="C114" t="s">
-        <v>319</v>
+        <v>425</v>
       </c>
       <c r="D114" t="s">
-        <v>320</v>
+        <v>426</v>
       </c>
       <c r="E114" t="s">
-        <v>321</v>
+        <v>427</v>
       </c>
       <c r="F114" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" hidden="1">
       <c r="A115" t="s">
         <v>530</v>
       </c>
@@ -4926,7 +5352,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:6" hidden="1">
       <c r="A116" t="s">
         <v>207</v>
       </c>
@@ -4943,47 +5369,47 @@
         <v>11</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:6">
       <c r="A117" t="s">
-        <v>313</v>
+        <v>271</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>314</v>
+        <v>272</v>
       </c>
       <c r="C117" t="s">
-        <v>315</v>
+        <v>273</v>
       </c>
       <c r="D117" t="s">
-        <v>78</v>
+        <v>274</v>
       </c>
       <c r="E117" t="s">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="F117" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
       <c r="A118" t="s">
-        <v>329</v>
+        <v>299</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="C118" t="s">
-        <v>331</v>
+        <v>301</v>
       </c>
       <c r="D118" t="s">
-        <v>78</v>
+        <v>302</v>
       </c>
       <c r="E118" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
       <c r="F118" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" hidden="1">
       <c r="A119" t="s">
         <v>640</v>
       </c>
@@ -5000,7 +5426,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:6" hidden="1">
       <c r="A120" t="s">
         <v>549</v>
       </c>
@@ -5017,7 +5443,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:6" hidden="1">
       <c r="A121" t="s">
         <v>391</v>
       </c>
@@ -5034,7 +5460,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:6" hidden="1">
       <c r="A122" t="s">
         <v>729</v>
       </c>
@@ -5051,7 +5477,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:6" hidden="1">
       <c r="A123" t="s">
         <v>249</v>
       </c>
@@ -5068,7 +5494,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:6" hidden="1">
       <c r="A124" t="s">
         <v>526</v>
       </c>
@@ -5085,50 +5511,47 @@
         <v>11</v>
       </c>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:6">
       <c r="A125" t="s">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>91</v>
+        <v>23</v>
       </c>
       <c r="C125" t="s">
-        <v>92</v>
+        <v>24</v>
       </c>
       <c r="D125" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="E125" t="s">
         <v>26</v>
       </c>
       <c r="F125" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
       <c r="A126" t="s">
-        <v>151</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>152</v>
+        <v>112</v>
+      </c>
+      <c r="B126" t="s">
+        <v>113</v>
       </c>
       <c r="C126" t="s">
-        <v>153</v>
+        <v>114</v>
       </c>
       <c r="D126" t="s">
-        <v>154</v>
+        <v>97</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F126" t="s">
-        <v>155</v>
-      </c>
-      <c r="G126" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" hidden="1">
       <c r="A127" t="s">
         <v>663</v>
       </c>
@@ -5145,7 +5568,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:6" hidden="1">
       <c r="A128" t="s">
         <v>725</v>
       </c>
@@ -5164,65 +5587,65 @@
     </row>
     <row r="129" spans="1:7">
       <c r="A129" t="s">
-        <v>284</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>285</v>
+        <v>116</v>
+      </c>
+      <c r="B129" t="s">
+        <v>117</v>
       </c>
       <c r="C129" t="s">
-        <v>286</v>
+        <v>118</v>
       </c>
       <c r="D129" t="s">
-        <v>287</v>
+        <v>97</v>
       </c>
       <c r="E129" t="s">
-        <v>288</v>
+        <v>46</v>
       </c>
       <c r="F129" t="s">
-        <v>289</v>
+        <v>119</v>
       </c>
     </row>
     <row r="130" spans="1:7">
       <c r="A130" t="s">
-        <v>499</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>500</v>
+        <v>120</v>
+      </c>
+      <c r="B130" t="s">
+        <v>121</v>
       </c>
       <c r="C130" t="s">
-        <v>501</v>
+        <v>122</v>
       </c>
       <c r="D130" t="s">
-        <v>502</v>
+        <v>123</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F130" t="s">
-        <v>503</v>
+        <v>124</v>
       </c>
     </row>
     <row r="131" spans="1:7">
       <c r="A131" t="s">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>131</v>
+        <v>71</v>
       </c>
       <c r="C131" t="s">
-        <v>132</v>
+        <v>72</v>
       </c>
       <c r="D131" t="s">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="E131" t="s">
         <v>46</v>
       </c>
       <c r="F131" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" hidden="1">
       <c r="A132" t="s">
         <v>449</v>
       </c>
@@ -5244,65 +5667,65 @@
     </row>
     <row r="133" spans="1:7">
       <c r="A133" t="s">
-        <v>62</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>63</v>
+        <v>135</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="C133" t="s">
-        <v>64</v>
+        <v>137</v>
       </c>
       <c r="D133" t="s">
-        <v>65</v>
+        <v>138</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="F133" t="s">
-        <v>66</v>
+        <v>139</v>
       </c>
     </row>
     <row r="134" spans="1:7">
       <c r="A134" t="s">
-        <v>67</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>63</v>
+        <v>258</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>259</v>
       </c>
       <c r="C134" t="s">
-        <v>68</v>
+        <v>260</v>
       </c>
       <c r="D134" t="s">
-        <v>69</v>
+        <v>261</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="F134" t="s">
-        <v>66</v>
+        <v>262</v>
       </c>
     </row>
     <row r="135" spans="1:7">
       <c r="A135" t="s">
-        <v>351</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>352</v>
+        <v>38</v>
+      </c>
+      <c r="B135" t="s">
+        <v>39</v>
       </c>
       <c r="C135" t="s">
-        <v>353</v>
+        <v>40</v>
       </c>
       <c r="D135" t="s">
-        <v>354</v>
+        <v>25</v>
       </c>
       <c r="E135" t="s">
-        <v>355</v>
+        <v>41</v>
       </c>
       <c r="F135" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" hidden="1">
       <c r="A136" t="s">
         <v>434</v>
       </c>
@@ -5324,88 +5747,85 @@
     </row>
     <row r="137" spans="1:7">
       <c r="A137" t="s">
-        <v>512</v>
-      </c>
-      <c r="B137" t="s">
-        <v>513</v>
+        <v>333</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>334</v>
       </c>
       <c r="C137" t="s">
-        <v>514</v>
+        <v>335</v>
       </c>
       <c r="D137" t="s">
-        <v>515</v>
+        <v>336</v>
       </c>
       <c r="E137" t="s">
-        <v>41</v>
+        <v>337</v>
       </c>
       <c r="F137" t="s">
-        <v>516</v>
+        <v>338</v>
       </c>
     </row>
     <row r="138" spans="1:7">
       <c r="A138" t="s">
-        <v>280</v>
+        <v>163</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>281</v>
+        <v>164</v>
       </c>
       <c r="C138" t="s">
-        <v>281</v>
+        <v>165</v>
       </c>
       <c r="D138" t="s">
-        <v>282</v>
+        <v>166</v>
       </c>
       <c r="E138" t="s">
-        <v>257</v>
+        <v>46</v>
       </c>
       <c r="F138" t="s">
-        <v>283</v>
+        <v>167</v>
       </c>
     </row>
     <row r="139" spans="1:7">
       <c r="A139" t="s">
-        <v>309</v>
+        <v>173</v>
       </c>
       <c r="B139" t="s">
-        <v>310</v>
+        <v>174</v>
       </c>
       <c r="C139" t="s">
-        <v>311</v>
+        <v>175</v>
       </c>
       <c r="D139" t="s">
-        <v>78</v>
+        <v>176</v>
       </c>
       <c r="E139" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F139" t="s">
-        <v>312</v>
+        <v>177</v>
       </c>
     </row>
     <row r="140" spans="1:7">
       <c r="A140" t="s">
-        <v>614</v>
-      </c>
-      <c r="B140" s="3" t="s">
-        <v>615</v>
+        <v>317</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>318</v>
       </c>
       <c r="C140" t="s">
-        <v>616</v>
+        <v>319</v>
       </c>
       <c r="D140" t="s">
-        <v>617</v>
+        <v>320</v>
       </c>
       <c r="E140" t="s">
-        <v>51</v>
+        <v>321</v>
       </c>
       <c r="F140" t="s">
-        <v>618</v>
-      </c>
-      <c r="G140" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" hidden="1">
       <c r="A141" t="s">
         <v>719</v>
       </c>
@@ -5425,7 +5845,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:7" hidden="1">
       <c r="A142" t="s">
         <v>597</v>
       </c>
@@ -5442,7 +5862,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" spans="1:7" hidden="1">
       <c r="A143" t="s">
         <v>604</v>
       </c>
@@ -5459,7 +5879,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" spans="1:7" hidden="1">
       <c r="A144" t="s">
         <v>17</v>
       </c>
@@ -5476,7 +5896,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="145" spans="1:7">
+    <row r="145" spans="1:6" hidden="1">
       <c r="A145" t="s">
         <v>589</v>
       </c>
@@ -5493,27 +5913,27 @@
         <v>46</v>
       </c>
     </row>
-    <row r="146" spans="1:7">
+    <row r="146" spans="1:6">
       <c r="A146" t="s">
-        <v>362</v>
+        <v>313</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>363</v>
+        <v>314</v>
       </c>
       <c r="C146" t="s">
-        <v>364</v>
+        <v>315</v>
       </c>
       <c r="D146" t="s">
-        <v>365</v>
+        <v>78</v>
       </c>
       <c r="E146" t="s">
-        <v>26</v>
+        <v>98</v>
       </c>
       <c r="F146" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" hidden="1">
       <c r="A147" t="s">
         <v>715</v>
       </c>
@@ -5530,27 +5950,27 @@
         <v>31</v>
       </c>
     </row>
-    <row r="148" spans="1:7">
+    <row r="148" spans="1:6">
       <c r="A148" t="s">
-        <v>418</v>
+        <v>329</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>419</v>
+        <v>330</v>
       </c>
       <c r="C148" t="s">
-        <v>420</v>
+        <v>331</v>
       </c>
       <c r="D148" t="s">
-        <v>421</v>
+        <v>78</v>
       </c>
       <c r="E148" t="s">
-        <v>46</v>
+        <v>327</v>
       </c>
       <c r="F148" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" hidden="1">
       <c r="A149" t="s">
         <v>683</v>
       </c>
@@ -5567,130 +5987,127 @@
         <v>46</v>
       </c>
     </row>
-    <row r="150" spans="1:7">
+    <row r="150" spans="1:6">
       <c r="A150" t="s">
-        <v>357</v>
-      </c>
-      <c r="B150" t="s">
-        <v>358</v>
+        <v>90</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="C150" t="s">
-        <v>359</v>
+        <v>92</v>
       </c>
       <c r="D150" t="s">
-        <v>360</v>
+        <v>78</v>
       </c>
       <c r="E150" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F150" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
       <c r="A151" t="s">
-        <v>567</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>568</v>
+        <v>284</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>285</v>
       </c>
       <c r="C151" t="s">
-        <v>569</v>
+        <v>286</v>
       </c>
       <c r="D151" t="s">
-        <v>570</v>
+        <v>287</v>
       </c>
       <c r="E151" t="s">
+        <v>288</v>
+      </c>
+      <c r="F151" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152" t="s">
+        <v>130</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C152" t="s">
+        <v>132</v>
+      </c>
+      <c r="D152" t="s">
+        <v>133</v>
+      </c>
+      <c r="E152" t="s">
         <v>46</v>
       </c>
-      <c r="F151" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7">
-      <c r="A152" t="s">
-        <v>405</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="C152" t="s">
-        <v>407</v>
-      </c>
-      <c r="D152" t="s">
-        <v>408</v>
-      </c>
-      <c r="E152" t="s">
-        <v>98</v>
-      </c>
       <c r="F152" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
       <c r="A153" t="s">
-        <v>429</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>430</v>
+        <v>351</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>352</v>
       </c>
       <c r="C153" t="s">
-        <v>431</v>
+        <v>353</v>
       </c>
       <c r="D153" t="s">
-        <v>432</v>
+        <v>354</v>
       </c>
       <c r="E153" t="s">
-        <v>46</v>
+        <v>355</v>
       </c>
       <c r="F153" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
       <c r="A154" t="s">
-        <v>197</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>198</v>
+        <v>512</v>
+      </c>
+      <c r="B154" t="s">
+        <v>513</v>
       </c>
       <c r="C154" t="s">
-        <v>199</v>
+        <v>514</v>
       </c>
       <c r="D154" t="s">
-        <v>200</v>
+        <v>515</v>
       </c>
       <c r="E154" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="F154" t="s">
-        <v>201</v>
-      </c>
-      <c r="G154" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
       <c r="A155" t="s">
-        <v>263</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>136</v>
+        <v>280</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>281</v>
       </c>
       <c r="C155" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="D155" t="s">
-        <v>261</v>
+        <v>282</v>
       </c>
       <c r="E155" t="s">
-        <v>46</v>
+        <v>257</v>
       </c>
       <c r="F155" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" hidden="1">
       <c r="A156" t="s">
         <v>226</v>
       </c>
@@ -5707,7 +6124,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="157" spans="1:7">
+    <row r="157" spans="1:6" hidden="1">
       <c r="A157" t="s">
         <v>620</v>
       </c>
@@ -5724,7 +6141,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="158" spans="1:7">
+    <row r="158" spans="1:6" hidden="1">
       <c r="A158" t="s">
         <v>632</v>
       </c>
@@ -5741,47 +6158,47 @@
         <v>635</v>
       </c>
     </row>
-    <row r="159" spans="1:7">
+    <row r="159" spans="1:6">
       <c r="A159" t="s">
-        <v>43</v>
+        <v>309</v>
       </c>
       <c r="B159" t="s">
-        <v>44</v>
+        <v>310</v>
       </c>
       <c r="C159" t="s">
-        <v>45</v>
+        <v>311</v>
       </c>
       <c r="D159" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="E159" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F159" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
       <c r="A160" t="s">
-        <v>522</v>
-      </c>
-      <c r="B160" t="s">
-        <v>523</v>
+        <v>362</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>363</v>
       </c>
       <c r="C160" t="s">
-        <v>524</v>
+        <v>364</v>
       </c>
       <c r="D160" t="s">
-        <v>520</v>
+        <v>365</v>
       </c>
       <c r="E160" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="F160" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" hidden="1">
       <c r="A161" t="s">
         <v>229</v>
       </c>
@@ -5798,27 +6215,27 @@
         <v>233</v>
       </c>
     </row>
-    <row r="162" spans="1:7">
+    <row r="162" spans="1:6">
       <c r="A162" t="s">
-        <v>75</v>
+        <v>418</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>76</v>
+        <v>419</v>
       </c>
       <c r="C162" t="s">
-        <v>77</v>
+        <v>420</v>
       </c>
       <c r="D162" t="s">
-        <v>78</v>
+        <v>421</v>
       </c>
       <c r="E162" t="s">
         <v>46</v>
       </c>
       <c r="F162" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" hidden="1">
       <c r="A163" t="s">
         <v>687</v>
       </c>
@@ -5835,47 +6252,47 @@
         <v>46</v>
       </c>
     </row>
-    <row r="164" spans="1:7">
+    <row r="164" spans="1:6">
       <c r="A164" t="s">
-        <v>234</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>235</v>
+        <v>357</v>
+      </c>
+      <c r="B164" t="s">
+        <v>358</v>
       </c>
       <c r="C164" t="s">
-        <v>236</v>
+        <v>359</v>
       </c>
       <c r="D164" t="s">
-        <v>237</v>
+        <v>360</v>
       </c>
       <c r="E164" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="F164" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
       <c r="A165" t="s">
-        <v>400</v>
-      </c>
-      <c r="B165" s="1" t="s">
-        <v>401</v>
+        <v>43</v>
+      </c>
+      <c r="B165" t="s">
+        <v>44</v>
       </c>
       <c r="C165" t="s">
-        <v>402</v>
+        <v>45</v>
       </c>
       <c r="D165" t="s">
-        <v>403</v>
+        <v>25</v>
       </c>
       <c r="E165" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="F165" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" hidden="1">
       <c r="A166" t="s">
         <v>253</v>
       </c>
@@ -5892,47 +6309,47 @@
         <v>257</v>
       </c>
     </row>
-    <row r="167" spans="1:7">
+    <row r="167" spans="1:6">
       <c r="A167" t="s">
-        <v>103</v>
+        <v>522</v>
       </c>
       <c r="B167" t="s">
-        <v>104</v>
+        <v>523</v>
       </c>
       <c r="C167" t="s">
-        <v>105</v>
+        <v>524</v>
       </c>
       <c r="D167" t="s">
-        <v>97</v>
+        <v>520</v>
       </c>
       <c r="E167" t="s">
-        <v>106</v>
+        <v>51</v>
       </c>
       <c r="F167" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
       <c r="A168" t="s">
-        <v>125</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>126</v>
+        <v>75</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="C168" t="s">
-        <v>127</v>
+        <v>77</v>
       </c>
       <c r="D168" t="s">
-        <v>128</v>
+        <v>78</v>
       </c>
       <c r="E168" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="F168" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" hidden="1">
       <c r="A169" t="s">
         <v>659</v>
       </c>
@@ -5949,7 +6366,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="170" spans="1:7">
+    <row r="170" spans="1:6" hidden="1">
       <c r="A170" t="s">
         <v>581</v>
       </c>
@@ -5966,34 +6383,43 @@
         <v>46</v>
       </c>
     </row>
-    <row r="171" spans="1:7">
+    <row r="171" spans="1:6">
       <c r="A171" t="s">
-        <v>470</v>
-      </c>
-      <c r="B171" s="1" t="s">
-        <v>471</v>
+        <v>103</v>
+      </c>
+      <c r="B171" t="s">
+        <v>104</v>
       </c>
       <c r="C171" t="s">
-        <v>472</v>
+        <v>105</v>
       </c>
       <c r="D171" t="s">
-        <v>473</v>
+        <v>97</v>
       </c>
       <c r="E171" t="s">
-        <v>11</v>
+        <v>106</v>
       </c>
       <c r="F171" t="s">
-        <v>474</v>
-      </c>
-      <c r="G171" t="s">
-        <v>475</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G171">
+    <filterColumn colId="5">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <sortState ref="A2:G171">
+      <sortCondition sortBy="cellColor" ref="B1:B171" dxfId="1"/>
+    </sortState>
+  </autoFilter>
   <sortState ref="A16:G171">
     <sortCondition ref="G1"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
